--- a/biology/Botanique/Zelkova_serrata/Zelkova_serrata.xlsx
+++ b/biology/Botanique/Zelkova_serrata/Zelkova_serrata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le zelkova du Japon (Zelkova serrata) est une espèce de plantes à fleurs de la famille des Ulmaceae. C'est un arbre caducifolié aux feuilles dentelées lancéolées. Il est appelé keyaki (欅, ケヤキ) au Japon. Philipp Franz von Siebold, l'a introduit aux Pays-Bas en 1830.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Zelkova serrata est un arbre à feuilles caduques pouvant atteindre 30 m de hauteur. Il se caractérise par un tronc court se divisant rapidement en un faisceau de plusieurs branches dressées formant une tête large et ronde. Ces branches sont droites ou courbés vers l'extérieur, donnant un port évasé et assez large, contrairement au zelkova du Caucase qui présente un branchage en partie similaire mais plus vertical composé de branches bien plus nombreuses et plus dirigées vers l'intérieur de l'arbre, lui donnant un port bien différencié. Le port du zelkova du Japon rappelle celui de l'orme d'Amérique, mais avec un tronc moins haut et une couronne souvent plus large. L'arbre se développe rapidement quand il est jeune mais le taux de croissance ralentit avec le temps.
 Il a des feuilles alternes poussant jusqu'à 5 cm de long et large. Les feuilles sont simples et ovales à oblongues-ovales avec des marges dentelées ou crénelées, qui ont donné à l'arbre son épithète spécifique serrata. Les feuilles sont acuminées ou apiculé, arrondies ou subcordée à la base, et contiennent 8-14 paires de veines. Les feuilles sont rugueuses sur le dessus et glabres ou presque glabres sur la face inférieure. Vertes à vert foncé au printemps et tout au long de l'été, passant à des jaunes, des oranges et des rouges en automne. Les pétioles mesurent 2 à 5 mm.
@@ -546,11 +560,11 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet arbre nécessite un ensoleillement partiel et préfère des sols humides et bien drainés. Un engrais riche en potassium et en azote favorise la végétation et les bourgeons floraux. Il est adaptable et tolérant à la chaleur, à peu d'eau, à des sols pauvres en nutriments et à divers pH. Zelkova serrata se propage par les graines, racines de boutures et greffes. Les graines germent sans prétraitement mais le taux de germination est meilleur après stratification à 5 °C pendant 60 jours.
-Menaces
-Les menaces qui pèsent sur cet arbre sont les coups de froid qui entraînent souvent un dépérissement des tiges. Il est très résistant à la graphiose de l'orme[réf. souhaitée], ce qui en fait un bon arbre de remplacement pour l'Orme d'Amérique. Zelkova serrata est semblable en apparence aux ormes, mais peut être distingué par ses fruits sans ailes et les feuilles qui sont symétriques plutôt qu'asymétriques à leur base. Zelkova serrata présente également une bonne résistance à la Galéruque de l'orme et au Scarabée japonais.
 </t>
         </is>
       </c>
@@ -576,10 +590,49 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Menaces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les menaces qui pèsent sur cet arbre sont les coups de froid qui entraînent souvent un dépérissement des tiges. Il est très résistant à la graphiose de l'orme[réf. souhaitée], ce qui en fait un bon arbre de remplacement pour l'Orme d'Amérique. Zelkova serrata est semblable en apparence aux ormes, mais peut être distingué par ses fruits sans ailes et les feuilles qui sont symétriques plutôt qu'asymétriques à leur base. Zelkova serrata présente également une bonne résistance à la Galéruque de l'orme et au Scarabée japonais.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Zelkova_serrata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Zelkova_serrata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Variétés et cultivars</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe deux variétés : Zelkova serrata var. Serrata au Japon et Zelkova serrata var. Tarokoensis (Hayata) à Taiwan qui diffère de l'espèce type par ses feuilles plus petites à dentelure moins profondément découpée sur les marges.
 De nombreux cultivars ont été sélectionnés, y compris
@@ -604,31 +657,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Zelkova_serrata</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Zelkova_serrata</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Utilisations</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est souvent cultivé comme arbre d'ornement dans les parcs et jardins. Ses petites feuilles en font une essence appréciée pour l'utilisation en bonsaï. Il est également utilisé comme porte-greffe pour les ormes en Europe, autres espèces d'Ulmaceae.
 C'est un symbole des villes japonaises de Sagamihara, Suzuka, Toyoake et Warabi.
